--- a/biology/Botanique/Guadua_angustifolia/Guadua_angustifolia.xlsx
+++ b/biology/Botanique/Guadua_angustifolia/Guadua_angustifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Guadua angustifolia est une espèce de plantes monocotylédones de la famille des Poaceae (graminées), famille des Bambusoideae originaire des régions tropicales d'Amérique. Ce sont des bambous cespiteux de grande taille, dont les chaumes peuvent atteindre 30 mètres de haut et 20 cm de diamètre, naturellement présents du Sud du Mexique au nord de l'Argentine, mais qui ont été introduits dans d'autres régions du monde : Bangladesh, Chine, Inde, etc.
@@ -515,8 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Catalogue of Life                                   (16 novembre 2017)[2] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (16 novembre 2017) :
 Arundarbor guadua (Bonpl.) Kuntze
 Bambos aculeata (E.Fourn.) Hitchc.
 Bambusa aculeata (E.Fourn.) Hitchc.
@@ -530,8 +547,43 @@
 Guadua inermis E.Fourn.
 Guadua intermedia E.Fourn.
 Nastus guadua (Bonpl.) Spreng.
-Liste des sous-espèces et variétés
-Selon Tropicos                                           (16 novembre 2017)[3] (Attention liste brute contenant possiblement des synonymes) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Guadua_angustifolia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guadua_angustifolia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (16 novembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Guadua angustifolia subsp. angustifolia
 sous-espèce Guadua angustifolia subsp. chacoensis (Rojas Acosta) S.M. Young &amp; Judd
 variété Guadua angustifolia var. angustifolia
